--- a/DesignerConfigs/Datas/LuckMoment.xlsx
+++ b/DesignerConfigs/Datas/LuckMoment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="LuckMoment" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -114,13 +114,16 @@
     <t>奖励</t>
   </si>
   <si>
-    <t>UI/LuckMoment/.png</t>
-  </si>
-  <si>
     <t>UI/FuncIcon/icon_hint.png</t>
   </si>
   <si>
+    <t>UI/LuckMoment/icon_ka.png</t>
+  </si>
+  <si>
     <t>UI/FuncIcon/icon_re.png</t>
+  </si>
+  <si>
+    <t>UI/LuckMoment/icon_qian.png</t>
   </si>
   <si>
     <t>UI/FuncIcon/icon_shift.png</t>
@@ -308,7 +311,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,18 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,85 +694,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,12 +1318,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1420,16 +1411,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1443,10 +1434,10 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1457,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1471,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1488,16 +1479,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -1505,16 +1496,16 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1522,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1539,16 +1530,16 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/LuckMoment.xlsx
+++ b/DesignerConfigs/Datas/LuckMoment.xlsx
@@ -59,12 +59,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>一般用于区分道具
+1：提示
+2：刷新
+3：换向</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -81,7 +96,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>reward</t>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>##type</t>
@@ -96,6 +114,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -112,6 +133,9 @@
   </si>
   <si>
     <t>奖励</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
   <si>
     <t>UI/FuncIcon/icon_hint.png</t>
@@ -1315,18 +1339,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1369,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,58 +1382,66 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1414,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1422,8 +1457,11 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1431,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1439,8 +1477,11 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1448,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1456,8 +1497,11 @@
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1465,16 +1509,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1482,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1490,8 +1537,11 @@
       <c r="F10">
         <v>3</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1499,16 +1549,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1516,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1524,8 +1577,11 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1533,12 +1589,15 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>100</v>
       </c>
     </row>

--- a/DesignerConfigs/Datas/LuckMoment.xlsx
+++ b/DesignerConfigs/Datas/LuckMoment.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>probability</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>数量</t>
+  </si>
+  <si>
+    <t>概率（权重</t>
   </si>
   <si>
     <t>UI/FuncIcon/icon_hint.png</t>
@@ -1339,18 +1345,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="32.375" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1372,8 +1379,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,33 +1393,37 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1417,31 +1431,35 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>0</v>
       </c>
@@ -1449,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1460,8 +1478,11 @@
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1469,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1480,8 +1501,11 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1489,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1500,8 +1524,11 @@
       <c r="G8">
         <v>2</v>
       </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>3</v>
       </c>
@@ -1509,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1520,8 +1547,11 @@
       <c r="G9">
         <v>100</v>
       </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>4</v>
       </c>
@@ -1529,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1540,8 +1570,11 @@
       <c r="G10">
         <v>2</v>
       </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>5</v>
       </c>
@@ -1549,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1558,10 +1591,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>6</v>
       </c>
@@ -1569,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1580,8 +1616,11 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>7</v>
       </c>
@@ -1589,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1598,7 +1637,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/LuckMoment.xlsx
+++ b/DesignerConfigs/Datas/LuckMoment.xlsx
@@ -70,7 +70,8 @@
           <t>一般用于区分道具
 1：提示
 2：刷新
-3：换向</t>
+3：换向
+4：消除</t>
         </r>
       </text>
     </comment>
@@ -156,7 +157,7 @@
     <t>UI/LuckMoment/icon_qian.png</t>
   </si>
   <si>
-    <t>UI/FuncIcon/icon_shift.png</t>
+    <t>UI/FuncIcon/icon_xiaochu.png</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1349,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1565,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>2</v>

--- a/DesignerConfigs/Datas/LuckMoment.xlsx
+++ b/DesignerConfigs/Datas/LuckMoment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="LuckMoment" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2</v>
